--- a/forecast_summary_B0CTTY491F.xlsx
+++ b/forecast_summary_B0CTTY491F.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>37.7466680081879</v>
       </c>
       <c r="D2" t="n">
-        <v>46.95422224046615</v>
+        <v>46.94530703705143</v>
       </c>
       <c r="E2" t="n">
         <v>56</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B650 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>46.08608557710593</v>
       </c>
       <c r="D3" t="n">
-        <v>55.6315365696337</v>
+        <v>55.18182691984491</v>
       </c>
       <c r="E3" t="n">
         <v>31</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B650 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>46.73415364734933</v>
       </c>
       <c r="D4" t="n">
-        <v>55.5605599962874</v>
+        <v>55.71415855314854</v>
       </c>
       <c r="E4" t="n">
         <v>32</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B650 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>31.39924962688885</v>
       </c>
       <c r="D5" t="n">
-        <v>39.89078361079651</v>
+        <v>40.18185728846451</v>
       </c>
       <c r="E5" t="n">
         <v>28</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B650 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,13 +643,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
         <v>6.127565068251354</v>
       </c>
       <c r="D6" t="n">
-        <v>13.92804951694024</v>
+        <v>14.62653498360368</v>
       </c>
       <c r="E6" t="n">
         <v>27</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B650 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-12.31836396051495</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.060618002693755</v>
+        <v>-4.00528718341994</v>
       </c>
       <c r="E7" t="n">
         <v>29</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B650 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-12.03007929296984</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.783734602005398</v>
+        <v>-3.207948076911336</v>
       </c>
       <c r="E8" t="n">
         <v>30</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B650 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>3.00319303155728</v>
       </c>
       <c r="D9" t="n">
-        <v>11.80511271289744</v>
+        <v>12.20407696426049</v>
       </c>
       <c r="E9" t="n">
         <v>30</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B650 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
         <v>17.60880212684618</v>
       </c>
       <c r="D10" t="n">
-        <v>26.2184061180446</v>
+        <v>27.4487062760371</v>
       </c>
       <c r="E10" t="n">
         <v>29</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B650 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>20.08059883242319</v>
       </c>
       <c r="D11" t="n">
-        <v>29.02589890688851</v>
+        <v>28.97214417263122</v>
       </c>
       <c r="E11" t="n">
         <v>29</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B650 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>11.48155106374379</v>
       </c>
       <c r="D12" t="n">
-        <v>20.67998164187654</v>
+        <v>20.04021548214646</v>
       </c>
       <c r="E12" t="n">
         <v>31</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B650 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>1.692204431250556</v>
       </c>
       <c r="D13" t="n">
-        <v>10.56607997843321</v>
+        <v>10.57824690036627</v>
       </c>
       <c r="E13" t="n">
         <v>31</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B650 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-1.448454848091146</v>
       </c>
       <c r="D14" t="n">
-        <v>7.891155980995891</v>
+        <v>8.152937127463835</v>
       </c>
       <c r="E14" t="n">
         <v>30</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B650 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>1.756518006111408</v>
       </c>
       <c r="D15" t="n">
-        <v>10.46198083003741</v>
+        <v>10.59510750071744</v>
       </c>
       <c r="E15" t="n">
         <v>30</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B650 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>5.838653164021383</v>
       </c>
       <c r="D16" t="n">
-        <v>14.98983915735001</v>
+        <v>14.46469088386055</v>
       </c>
       <c r="E16" t="n">
         <v>30</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B650 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>6.730917186298011</v>
       </c>
       <c r="D17" t="n">
-        <v>15.74733566897508</v>
+        <v>15.71182780112276</v>
       </c>
       <c r="E17" t="n">
         <v>30</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B650 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>4.687489541570515</v>
       </c>
       <c r="D18" t="n">
-        <v>13.73218937389671</v>
+        <v>13.69991426576869</v>
       </c>
       <c r="E18" t="n">
         <v>28</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B650 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>2.202306155320144</v>
       </c>
       <c r="D19" t="n">
-        <v>10.89559086152634</v>
+        <v>10.5941762491898</v>
       </c>
       <c r="E19" t="n">
         <v>28</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B650 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>0.8495162049765095</v>
       </c>
       <c r="D20" t="n">
-        <v>9.689179208646815</v>
+        <v>9.737548165515554</v>
       </c>
       <c r="E20" t="n">
         <v>29</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B650 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>0.458471383192864</v>
       </c>
       <c r="D21" t="n">
-        <v>10.20827324774119</v>
+        <v>9.574548316812987</v>
       </c>
       <c r="E21" t="n">
         <v>27</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B650 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>285</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>193</t>
         </is>
       </c>
     </row>
